--- a/RNN_test_1epochs_2.xlsx
+++ b/RNN_test_1epochs_2.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -596,6 +596,2199 @@
         <v>260</v>
       </c>
     </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>0.992467043314501</v>
+      </c>
+      <c r="B13">
+        <v>-0.06696423710423309</v>
+      </c>
+      <c r="C13">
+        <v>1.390030311703588</v>
+      </c>
+      <c r="D13">
+        <v>58.07836109939576</v>
+      </c>
+      <c r="E13">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>0.9943502824858756</v>
+      </c>
+      <c r="B14">
+        <v>-0.06689345768572416</v>
+      </c>
+      <c r="C14">
+        <v>1.390397860813784</v>
+      </c>
+      <c r="D14">
+        <v>58.07719066562088</v>
+      </c>
+      <c r="E14">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>0.992467043314501</v>
+      </c>
+      <c r="B15">
+        <v>-0.0657326872830428</v>
+      </c>
+      <c r="C15">
+        <v>1.396495868862011</v>
+      </c>
+      <c r="D15">
+        <v>58.07797940043454</v>
+      </c>
+      <c r="E15">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>0.9905838041431262</v>
+      </c>
+      <c r="B16">
+        <v>-0.06597143907238918</v>
+      </c>
+      <c r="C16">
+        <v>1.395230664786396</v>
+      </c>
+      <c r="D16">
+        <v>58.07848157179995</v>
+      </c>
+      <c r="E16">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>0.9792843691148776</v>
+      </c>
+      <c r="B17">
+        <v>-0.06702936409467047</v>
+      </c>
+      <c r="C17">
+        <v>1.389692543713982</v>
+      </c>
+      <c r="D17">
+        <v>59.64589951899978</v>
+      </c>
+      <c r="E17">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>0.9905838041431262</v>
+      </c>
+      <c r="B18">
+        <v>-0.06556680233591283</v>
+      </c>
+      <c r="C18">
+        <v>1.397378320699313</v>
+      </c>
+      <c r="D18">
+        <v>58.07982940704643</v>
+      </c>
+      <c r="E18">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>0.9905838041431262</v>
+      </c>
+      <c r="B19">
+        <v>-0.06572163362526308</v>
+      </c>
+      <c r="C19">
+        <v>1.396554583980164</v>
+      </c>
+      <c r="D19">
+        <v>58.07687681917866</v>
+      </c>
+      <c r="E19">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>0.9755178907721281</v>
+      </c>
+      <c r="B20">
+        <v>-0.06882845325483686</v>
+      </c>
+      <c r="C20">
+        <v>1.38052094376387</v>
+      </c>
+      <c r="D20">
+        <v>58.08152775091553</v>
+      </c>
+      <c r="E20">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>0.9585687382297552</v>
+      </c>
+      <c r="B21">
+        <v>-0.06815296677536797</v>
+      </c>
+      <c r="C21">
+        <v>1.383929002228243</v>
+      </c>
+      <c r="D21">
+        <v>60.76038957061936</v>
+      </c>
+      <c r="E21">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>0.992467043314501</v>
+      </c>
+      <c r="B22">
+        <v>-0.06603374568455353</v>
+      </c>
+      <c r="C22">
+        <v>1.394901428304824</v>
+      </c>
+      <c r="D22">
+        <v>58.07906527612239</v>
+      </c>
+      <c r="E22">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>0.9943502824858756</v>
+      </c>
+      <c r="B23">
+        <v>-0.06383503127115613</v>
+      </c>
+      <c r="C23">
+        <v>1.406760719964787</v>
+      </c>
+      <c r="D23">
+        <v>58.07717666718631</v>
+      </c>
+      <c r="E23">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>0.9774011299435028</v>
+      </c>
+      <c r="B24">
+        <v>-0.06570462150493904</v>
+      </c>
+      <c r="C24">
+        <v>1.396644973543428</v>
+      </c>
+      <c r="D24">
+        <v>58.07652680672006</v>
+      </c>
+      <c r="E24">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>0.9943502824858756</v>
+      </c>
+      <c r="B25">
+        <v>-0.0641876118565851</v>
+      </c>
+      <c r="C25">
+        <v>1.40482490448931</v>
+      </c>
+      <c r="D25">
+        <v>58.07638066500609</v>
+      </c>
+      <c r="E25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>0.9905838041431262</v>
+      </c>
+      <c r="B26">
+        <v>-0.06506569270450416</v>
+      </c>
+      <c r="C26">
+        <v>1.400061095533818</v>
+      </c>
+      <c r="D26">
+        <v>58.0783213598157</v>
+      </c>
+      <c r="E26">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>0.9039548022598869</v>
+      </c>
+      <c r="B27">
+        <v>-0.07214946168148667</v>
+      </c>
+      <c r="C27">
+        <v>1.364352931577932</v>
+      </c>
+      <c r="D27">
+        <v>60.53649535627083</v>
+      </c>
+      <c r="E27">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>0.992467043314501</v>
+      </c>
+      <c r="B28">
+        <v>-0.0658278365791788</v>
+      </c>
+      <c r="C28">
+        <v>1.395990962085903</v>
+      </c>
+      <c r="D28">
+        <v>58.07934605939209</v>
+      </c>
+      <c r="E28">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>0.992467043314501</v>
+      </c>
+      <c r="B29">
+        <v>-0.06422450731146111</v>
+      </c>
+      <c r="C29">
+        <v>1.40462310137004</v>
+      </c>
+      <c r="D29">
+        <v>58.07706219914623</v>
+      </c>
+      <c r="E29">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>0.9887005649717513</v>
+      </c>
+      <c r="B30">
+        <v>-0.06463888992183411</v>
+      </c>
+      <c r="C30">
+        <v>1.402366503562855</v>
+      </c>
+      <c r="D30">
+        <v>58.08117213785937</v>
+      </c>
+      <c r="E30">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>0.9868173258003766</v>
+      </c>
+      <c r="B31">
+        <v>-0.06469869089643372</v>
+      </c>
+      <c r="C31">
+        <v>1.402042339479739</v>
+      </c>
+      <c r="D31">
+        <v>58.29976710236087</v>
+      </c>
+      <c r="E31">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>0.9830508474576272</v>
+      </c>
+      <c r="B32">
+        <v>-0.06462260602919476</v>
+      </c>
+      <c r="C32">
+        <v>1.402454838858496</v>
+      </c>
+      <c r="D32">
+        <v>58.0776641321283</v>
+      </c>
+      <c r="E32">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>0.992467043314501</v>
+      </c>
+      <c r="B33">
+        <v>-0.06389473717139396</v>
+      </c>
+      <c r="C33">
+        <v>1.406431970810103</v>
+      </c>
+      <c r="D33">
+        <v>58.07777557955526</v>
+      </c>
+      <c r="E33">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>0.992467043314501</v>
+      </c>
+      <c r="B34">
+        <v>-0.06446470378097274</v>
+      </c>
+      <c r="C34">
+        <v>1.40331285742562</v>
+      </c>
+      <c r="D34">
+        <v>58.07857461067176</v>
+      </c>
+      <c r="E34">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>0.9717514124293785</v>
+      </c>
+      <c r="B35">
+        <v>-0.06521677431328869</v>
+      </c>
+      <c r="C35">
+        <v>1.399249542486635</v>
+      </c>
+      <c r="D35">
+        <v>58.74473871622198</v>
+      </c>
+      <c r="E35">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>0.992467043314501</v>
+      </c>
+      <c r="B36">
+        <v>-0.06349089650831674</v>
+      </c>
+      <c r="C36">
+        <v>1.408663096480062</v>
+      </c>
+      <c r="D36">
+        <v>58.07663084966141</v>
+      </c>
+      <c r="E36">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>0.992467043314501</v>
+      </c>
+      <c r="B37">
+        <v>-0.06336613017552782</v>
+      </c>
+      <c r="C37">
+        <v>1.409355990722328</v>
+      </c>
+      <c r="D37">
+        <v>58.07868825941699</v>
+      </c>
+      <c r="E37">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>-0.06330753381541601</v>
+      </c>
+      <c r="C38">
+        <v>1.409681996481751</v>
+      </c>
+      <c r="D38">
+        <v>58.07552617077106</v>
+      </c>
+      <c r="E38">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>0.992467043314501</v>
+      </c>
+      <c r="B39">
+        <v>-0.06283063355777957</v>
+      </c>
+      <c r="C39">
+        <v>1.412349376087128</v>
+      </c>
+      <c r="D39">
+        <v>58.07733051123918</v>
+      </c>
+      <c r="E39">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>0.9830508474576272</v>
+      </c>
+      <c r="B40">
+        <v>-0.06377424720754649</v>
+      </c>
+      <c r="C40">
+        <v>1.407095800704814</v>
+      </c>
+      <c r="D40">
+        <v>58.08091848059902</v>
+      </c>
+      <c r="E40">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>0.9905838041431262</v>
+      </c>
+      <c r="B41">
+        <v>-0.06378845768914809</v>
+      </c>
+      <c r="C41">
+        <v>1.407017427671638</v>
+      </c>
+      <c r="D41">
+        <v>58.07784740118833</v>
+      </c>
+      <c r="E41">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>0.9981167608286252</v>
+      </c>
+      <c r="B42">
+        <v>-0.06332611214192699</v>
+      </c>
+      <c r="C42">
+        <v>1.409578593583338</v>
+      </c>
+      <c r="D42">
+        <v>58.07599146575075</v>
+      </c>
+      <c r="E42">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>0.992467043314501</v>
+      </c>
+      <c r="B43">
+        <v>-0.0647487974453661</v>
+      </c>
+      <c r="C43">
+        <v>1.401771014366774</v>
+      </c>
+      <c r="D43">
+        <v>58.0786174132939</v>
+      </c>
+      <c r="E43">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>0.9905838041431262</v>
+      </c>
+      <c r="B44">
+        <v>-0.06515715904897322</v>
+      </c>
+      <c r="C44">
+        <v>1.399569492079157</v>
+      </c>
+      <c r="D44">
+        <v>58.0787053827808</v>
+      </c>
+      <c r="E44">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>0.992467043314501</v>
+      </c>
+      <c r="B45">
+        <v>-0.06603337391592784</v>
+      </c>
+      <c r="C45">
+        <v>1.394903391628298</v>
+      </c>
+      <c r="D45">
+        <v>58.07865986422367</v>
+      </c>
+      <c r="E45">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>0.9905838041431262</v>
+      </c>
+      <c r="B46">
+        <v>-0.0672191691579887</v>
+      </c>
+      <c r="C46">
+        <v>1.388710493331358</v>
+      </c>
+      <c r="D46">
+        <v>58.08049531934554</v>
+      </c>
+      <c r="E46">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>0.8606403013182674</v>
+      </c>
+      <c r="B47">
+        <v>-0.07447672934302471</v>
+      </c>
+      <c r="C47">
+        <v>1.353567297284726</v>
+      </c>
+      <c r="D47">
+        <v>59.41925650342989</v>
+      </c>
+      <c r="E47">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>0.992467043314501</v>
+      </c>
+      <c r="B48">
+        <v>-0.06635024195768584</v>
+      </c>
+      <c r="C48">
+        <v>1.393234994964158</v>
+      </c>
+      <c r="D48">
+        <v>58.07745017590175</v>
+      </c>
+      <c r="E48">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>0.992467043314501</v>
+      </c>
+      <c r="B49">
+        <v>-0.06612068747006158</v>
+      </c>
+      <c r="C49">
+        <v>1.394442664677204</v>
+      </c>
+      <c r="D49">
+        <v>58.0785836071003</v>
+      </c>
+      <c r="E49">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>0.9566854990583804</v>
+      </c>
+      <c r="B50">
+        <v>-0.06772474185246408</v>
+      </c>
+      <c r="C50">
+        <v>1.386111486884209</v>
+      </c>
+      <c r="D50">
+        <v>59.64097535161061</v>
+      </c>
+      <c r="E50">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>0.992467043314501</v>
+      </c>
+      <c r="B51">
+        <v>-0.06570119107357927</v>
+      </c>
+      <c r="C51">
+        <v>1.396663203810003</v>
+      </c>
+      <c r="D51">
+        <v>58.07790220007004</v>
+      </c>
+      <c r="E51">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>0.992467043314501</v>
+      </c>
+      <c r="B52">
+        <v>-0.06569647052016152</v>
+      </c>
+      <c r="C52">
+        <v>1.396688292089346</v>
+      </c>
+      <c r="D52">
+        <v>58.07851905567318</v>
+      </c>
+      <c r="E52">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>0.9905838041431262</v>
+      </c>
+      <c r="B53">
+        <v>-0.06522231725698791</v>
+      </c>
+      <c r="C53">
+        <v>1.399219812599104</v>
+      </c>
+      <c r="D53">
+        <v>58.07791093179907</v>
+      </c>
+      <c r="E53">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>0.9943502824858756</v>
+      </c>
+      <c r="B54">
+        <v>-0.06489348143572554</v>
+      </c>
+      <c r="C54">
+        <v>1.400989026677083</v>
+      </c>
+      <c r="D54">
+        <v>58.07660538257861</v>
+      </c>
+      <c r="E54">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55">
+        <v>-0.06483800335824601</v>
+      </c>
+      <c r="C55">
+        <v>1.401288616605744</v>
+      </c>
+      <c r="D55">
+        <v>58.07635924038174</v>
+      </c>
+      <c r="E55">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <v>0.9887005649717513</v>
+      </c>
+      <c r="B56">
+        <v>-0.06510340493530362</v>
+      </c>
+      <c r="C56">
+        <v>1.399858299303525</v>
+      </c>
+      <c r="D56">
+        <v>58.07875506269333</v>
+      </c>
+      <c r="E56">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>0.9905838041431262</v>
+      </c>
+      <c r="B57">
+        <v>-0.06368128092844896</v>
+      </c>
+      <c r="C57">
+        <v>1.407609063419479</v>
+      </c>
+      <c r="D57">
+        <v>58.07841221212238</v>
+      </c>
+      <c r="E57">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58">
+        <v>0.9830508474576272</v>
+      </c>
+      <c r="B58">
+        <v>-0.06353381642391227</v>
+      </c>
+      <c r="C58">
+        <v>1.408425132562376</v>
+      </c>
+      <c r="D58">
+        <v>58.08020505671778</v>
+      </c>
+      <c r="E58">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <v>0.9849340866290019</v>
+      </c>
+      <c r="B59">
+        <v>-0.06301955722323536</v>
+      </c>
+      <c r="C59">
+        <v>1.411289678417096</v>
+      </c>
+      <c r="D59">
+        <v>58.07950235167716</v>
+      </c>
+      <c r="E59">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60">
+        <v>0.9548022598870056</v>
+      </c>
+      <c r="B60">
+        <v>-0.06477519666472646</v>
+      </c>
+      <c r="C60">
+        <v>1.401628169113528</v>
+      </c>
+      <c r="D60">
+        <v>58.08154043363592</v>
+      </c>
+      <c r="E60">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61">
+        <v>0.9887005649717513</v>
+      </c>
+      <c r="B61">
+        <v>-0.06203542642581279</v>
+      </c>
+      <c r="C61">
+        <v>1.416853864958141</v>
+      </c>
+      <c r="D61">
+        <v>58.07856912698234</v>
+      </c>
+      <c r="E61">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62">
+        <v>0.9717514124293785</v>
+      </c>
+      <c r="B62">
+        <v>-0.06310317719470446</v>
+      </c>
+      <c r="C62">
+        <v>1.410821910008782</v>
+      </c>
+      <c r="D62">
+        <v>58.08339671986652</v>
+      </c>
+      <c r="E62">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63">
+        <v>0.9755178907721281</v>
+      </c>
+      <c r="B63">
+        <v>-0.06279468808658013</v>
+      </c>
+      <c r="C63">
+        <v>1.412551449985435</v>
+      </c>
+      <c r="D63">
+        <v>58.08379874487205</v>
+      </c>
+      <c r="E63">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64">
+        <v>0.992467043314501</v>
+      </c>
+      <c r="B64">
+        <v>-0.06147780684235676</v>
+      </c>
+      <c r="C64">
+        <v>1.420055802153469</v>
+      </c>
+      <c r="D64">
+        <v>58.08074993881325</v>
+      </c>
+      <c r="E64">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65">
+        <v>0.9811676082862523</v>
+      </c>
+      <c r="B65">
+        <v>-0.06197043119196465</v>
+      </c>
+      <c r="C65">
+        <v>1.4172252217076</v>
+      </c>
+      <c r="D65">
+        <v>58.52798154539119</v>
+      </c>
+      <c r="E65">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66">
+        <v>0.992467043314501</v>
+      </c>
+      <c r="B66">
+        <v>-0.06166449929579039</v>
+      </c>
+      <c r="C66">
+        <v>1.418979756659467</v>
+      </c>
+      <c r="D66">
+        <v>58.07935367410291</v>
+      </c>
+      <c r="E66">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67">
+        <v>0.9905838041431262</v>
+      </c>
+      <c r="B67">
+        <v>-0.06227526114896133</v>
+      </c>
+      <c r="C67">
+        <v>1.415487742164075</v>
+      </c>
+      <c r="D67">
+        <v>58.07883159675131</v>
+      </c>
+      <c r="E67">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68">
+        <v>0.992467043314501</v>
+      </c>
+      <c r="B68">
+        <v>-0.06346964905943807</v>
+      </c>
+      <c r="C68">
+        <v>1.408780974634897</v>
+      </c>
+      <c r="D68">
+        <v>58.07783891583424</v>
+      </c>
+      <c r="E68">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69">
+        <v>0.992467043314501</v>
+      </c>
+      <c r="B69">
+        <v>-0.06453150013164335</v>
+      </c>
+      <c r="C69">
+        <v>1.402949575213537</v>
+      </c>
+      <c r="D69">
+        <v>58.07694856854424</v>
+      </c>
+      <c r="E69">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70">
+        <v>0.9755178907721281</v>
+      </c>
+      <c r="B70">
+        <v>-0.06592769359576679</v>
+      </c>
+      <c r="C70">
+        <v>1.39546205407763</v>
+      </c>
+      <c r="D70">
+        <v>60.09323283606277</v>
+      </c>
+      <c r="E70">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71">
+        <v>-0.06413339050423472</v>
+      </c>
+      <c r="C71">
+        <v>1.405121736482132</v>
+      </c>
+      <c r="D71">
+        <v>58.07606351650856</v>
+      </c>
+      <c r="E71">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72">
+        <v>0.9774011299435028</v>
+      </c>
+      <c r="B72">
+        <v>-0.06535467080543189</v>
+      </c>
+      <c r="C72">
+        <v>1.398510863597129</v>
+      </c>
+      <c r="D72">
+        <v>58.97362831210612</v>
+      </c>
+      <c r="E72">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73">
+        <v>0.9905838041431262</v>
+      </c>
+      <c r="B73">
+        <v>-0.06395779950375499</v>
+      </c>
+      <c r="C73">
+        <v>1.406085157387377</v>
+      </c>
+      <c r="D73">
+        <v>58.07955194749219</v>
+      </c>
+      <c r="E73">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74">
+        <v>0.992467043314501</v>
+      </c>
+      <c r="B74">
+        <v>-0.06386887450263112</v>
+      </c>
+      <c r="C74">
+        <v>1.406574327170593</v>
+      </c>
+      <c r="D74">
+        <v>58.07851770289819</v>
+      </c>
+      <c r="E74">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75">
+        <v>0.9962335216572504</v>
+      </c>
+      <c r="B75">
+        <v>-0.06382424787520681</v>
+      </c>
+      <c r="C75">
+        <v>1.406820135850327</v>
+      </c>
+      <c r="D75">
+        <v>58.07645849511779</v>
+      </c>
+      <c r="E75">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76">
+        <v>0.9981167608286252</v>
+      </c>
+      <c r="B76">
+        <v>-0.06392674678368616</v>
+      </c>
+      <c r="C76">
+        <v>1.406255879423578</v>
+      </c>
+      <c r="D76">
+        <v>58.07697632901658</v>
+      </c>
+      <c r="E76">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77">
+        <v>0.9887005649717513</v>
+      </c>
+      <c r="B77">
+        <v>-0.0653507782785728</v>
+      </c>
+      <c r="C77">
+        <v>1.398531688213353</v>
+      </c>
+      <c r="D77">
+        <v>58.07962073705916</v>
+      </c>
+      <c r="E77">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78">
+        <v>0.9830508474576272</v>
+      </c>
+      <c r="B78">
+        <v>-0.06480252376689594</v>
+      </c>
+      <c r="C78">
+        <v>1.401480379751058</v>
+      </c>
+      <c r="D78">
+        <v>58.08553334490338</v>
+      </c>
+      <c r="E78">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79">
+        <v>0.9849340866290019</v>
+      </c>
+      <c r="B79">
+        <v>-0.06624378818143019</v>
+      </c>
+      <c r="C79">
+        <v>1.393794390176059</v>
+      </c>
+      <c r="D79">
+        <v>58.07930551846916</v>
+      </c>
+      <c r="E79">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80">
+        <v>0.9491525423728814</v>
+      </c>
+      <c r="B80">
+        <v>-0.06789490585870958</v>
+      </c>
+      <c r="C80">
+        <v>1.385242171705262</v>
+      </c>
+      <c r="D80">
+        <v>60.09348382301439</v>
+      </c>
+      <c r="E80">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81">
+        <v>0.992467043314501</v>
+      </c>
+      <c r="B81">
+        <v>-0.06676741801297889</v>
+      </c>
+      <c r="C81">
+        <v>1.391053574994</v>
+      </c>
+      <c r="D81">
+        <v>58.07813415101831</v>
+      </c>
+      <c r="E81">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82">
+        <v>0.992467043314501</v>
+      </c>
+      <c r="B82">
+        <v>-0.06704286074047197</v>
+      </c>
+      <c r="C82">
+        <v>1.389622597399234</v>
+      </c>
+      <c r="D82">
+        <v>58.07670932009722</v>
+      </c>
+      <c r="E82">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83">
+        <v>0.9830508474576272</v>
+      </c>
+      <c r="B83">
+        <v>-0.06770461107905243</v>
+      </c>
+      <c r="C83">
+        <v>1.38621450935613</v>
+      </c>
+      <c r="D83">
+        <v>58.07913176232146</v>
+      </c>
+      <c r="E83">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84">
+        <v>1</v>
+      </c>
+      <c r="B84">
+        <v>-0.06637932822319929</v>
+      </c>
+      <c r="C84">
+        <v>1.393082347051714</v>
+      </c>
+      <c r="D84">
+        <v>58.0760542182235</v>
+      </c>
+      <c r="E84">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85">
+        <v>0.9774011299435028</v>
+      </c>
+      <c r="B85">
+        <v>-0.06738330699222891</v>
+      </c>
+      <c r="C85">
+        <v>1.387864035757502</v>
+      </c>
+      <c r="D85">
+        <v>58.0785017750031</v>
+      </c>
+      <c r="E85">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86">
+        <v>0.992467043314501</v>
+      </c>
+      <c r="B86">
+        <v>-0.06546535180610381</v>
+      </c>
+      <c r="C86">
+        <v>1.397919379662389</v>
+      </c>
+      <c r="D86">
+        <v>58.07805806805384</v>
+      </c>
+      <c r="E86">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87">
+        <v>0.9755178907721281</v>
+      </c>
+      <c r="B87">
+        <v>-0.0665900161583788</v>
+      </c>
+      <c r="C87">
+        <v>1.391979124136302</v>
+      </c>
+      <c r="D87">
+        <v>58.3044001429412</v>
+      </c>
+      <c r="E87">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88">
+        <v>0.992467043314501</v>
+      </c>
+      <c r="B88">
+        <v>-0.06632587622337119</v>
+      </c>
+      <c r="C88">
+        <v>1.393362933410073</v>
+      </c>
+      <c r="D88">
+        <v>58.07931494281919</v>
+      </c>
+      <c r="E88">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89">
+        <v>0.9887005649717513</v>
+      </c>
+      <c r="B89">
+        <v>-0.06728489740302189</v>
+      </c>
+      <c r="C89">
+        <v>1.388371223438176</v>
+      </c>
+      <c r="D89">
+        <v>58.07947650428698</v>
+      </c>
+      <c r="E89">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90">
+        <v>1</v>
+      </c>
+      <c r="B90">
+        <v>-0.06635004992621832</v>
+      </c>
+      <c r="C90">
+        <v>1.393236003044298</v>
+      </c>
+      <c r="D90">
+        <v>58.07715556841796</v>
+      </c>
+      <c r="E90">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91">
+        <v>0.9830508474576272</v>
+      </c>
+      <c r="B91">
+        <v>-0.06869003117218017</v>
+      </c>
+      <c r="C91">
+        <v>1.381215914862397</v>
+      </c>
+      <c r="D91">
+        <v>58.08222376264386</v>
+      </c>
+      <c r="E91">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92">
+        <v>0.9943502824858756</v>
+      </c>
+      <c r="B92">
+        <v>-0.06748256879650112</v>
+      </c>
+      <c r="C92">
+        <v>1.387353392990666</v>
+      </c>
+      <c r="D92">
+        <v>58.07940423924649</v>
+      </c>
+      <c r="E92">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93">
+        <v>0.9905838041431262</v>
+      </c>
+      <c r="B93">
+        <v>-0.06810558957660184</v>
+      </c>
+      <c r="C93">
+        <v>1.384169619711434</v>
+      </c>
+      <c r="D93">
+        <v>58.07921527178504</v>
+      </c>
+      <c r="E93">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94">
+        <v>0.992467043314501</v>
+      </c>
+      <c r="B94">
+        <v>-0.06844847144642925</v>
+      </c>
+      <c r="C94">
+        <v>1.382432908789048</v>
+      </c>
+      <c r="D94">
+        <v>58.07818678396777</v>
+      </c>
+      <c r="E94">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95">
+        <v>0.9887005649717513</v>
+      </c>
+      <c r="B95">
+        <v>-0.07024735701929376</v>
+      </c>
+      <c r="C95">
+        <v>1.373496335041454</v>
+      </c>
+      <c r="D95">
+        <v>58.07976784239999</v>
+      </c>
+      <c r="E95">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96">
+        <v>0.992467043314501</v>
+      </c>
+      <c r="B96">
+        <v>-0.07007207358326537</v>
+      </c>
+      <c r="C96">
+        <v>1.374354471658555</v>
+      </c>
+      <c r="D96">
+        <v>58.07793346062804</v>
+      </c>
+      <c r="E96">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97">
+        <v>0.9830508474576272</v>
+      </c>
+      <c r="B97">
+        <v>-0.07050358962520342</v>
+      </c>
+      <c r="C97">
+        <v>1.372246699358227</v>
+      </c>
+      <c r="D97">
+        <v>58.08121491554944</v>
+      </c>
+      <c r="E97">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98">
+        <v>0.9981167608286252</v>
+      </c>
+      <c r="B98">
+        <v>-0.06989431873589792</v>
+      </c>
+      <c r="C98">
+        <v>1.375227452224542</v>
+      </c>
+      <c r="D98">
+        <v>58.07754736505371</v>
+      </c>
+      <c r="E98">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99">
+        <v>0.9830508474576272</v>
+      </c>
+      <c r="B99">
+        <v>-0.07026971310714727</v>
+      </c>
+      <c r="C99">
+        <v>1.373387078622732</v>
+      </c>
+      <c r="D99">
+        <v>58.08124055551848</v>
+      </c>
+      <c r="E99">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100">
+        <v>0.992467043314501</v>
+      </c>
+      <c r="B100">
+        <v>-0.0698208250792606</v>
+      </c>
+      <c r="C100">
+        <v>1.375589201829141</v>
+      </c>
+      <c r="D100">
+        <v>58.07755966158742</v>
+      </c>
+      <c r="E100">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101">
+        <v>0.992467043314501</v>
+      </c>
+      <c r="B101">
+        <v>-0.06886611716159344</v>
+      </c>
+      <c r="C101">
+        <v>1.380332148164414</v>
+      </c>
+      <c r="D101">
+        <v>58.07761480549716</v>
+      </c>
+      <c r="E101">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102">
+        <v>0.992467043314501</v>
+      </c>
+      <c r="B102">
+        <v>-0.06855838192934198</v>
+      </c>
+      <c r="C102">
+        <v>1.381878507939106</v>
+      </c>
+      <c r="D102">
+        <v>58.08038843422604</v>
+      </c>
+      <c r="E102">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103">
+        <v>0.9887005649717513</v>
+      </c>
+      <c r="B103">
+        <v>-0.06852688075667135</v>
+      </c>
+      <c r="C103">
+        <v>1.382037289759488</v>
+      </c>
+      <c r="D103">
+        <v>58.08154011564725</v>
+      </c>
+      <c r="E103">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104">
+        <v>0.9830508474576272</v>
+      </c>
+      <c r="B104">
+        <v>-0.06875383989875282</v>
+      </c>
+      <c r="C104">
+        <v>1.380895335246844</v>
+      </c>
+      <c r="D104">
+        <v>58.0853098289062</v>
+      </c>
+      <c r="E104">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105">
+        <v>0.992467043314501</v>
+      </c>
+      <c r="B105">
+        <v>-0.06865385802228048</v>
+      </c>
+      <c r="C105">
+        <v>1.381397816735463</v>
+      </c>
+      <c r="D105">
+        <v>58.07912537033439</v>
+      </c>
+      <c r="E105">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106">
+        <v>0.992467043314501</v>
+      </c>
+      <c r="B106">
+        <v>-0.06927779767187862</v>
+      </c>
+      <c r="C106">
+        <v>1.37827692057391</v>
+      </c>
+      <c r="D106">
+        <v>58.07953413913818</v>
+      </c>
+      <c r="E106">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107">
+        <v>0.9943502824858756</v>
+      </c>
+      <c r="B107">
+        <v>-0.0693253733255644</v>
+      </c>
+      <c r="C107">
+        <v>1.378040393512755</v>
+      </c>
+      <c r="D107">
+        <v>58.07818460695074</v>
+      </c>
+      <c r="E107">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108">
+        <v>0.9981167608286252</v>
+      </c>
+      <c r="B108">
+        <v>-0.06919147989164526</v>
+      </c>
+      <c r="C108">
+        <v>1.378706576755981</v>
+      </c>
+      <c r="D108">
+        <v>58.07710277289556</v>
+      </c>
+      <c r="E108">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109">
+        <v>0.9661016949152542</v>
+      </c>
+      <c r="B109">
+        <v>-0.07090782614816105</v>
+      </c>
+      <c r="C109">
+        <v>1.370286753246513</v>
+      </c>
+      <c r="D109">
+        <v>58.0792986885244</v>
+      </c>
+      <c r="E109">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110">
+        <v>0.992467043314501</v>
+      </c>
+      <c r="B110">
+        <v>-0.06986809740690995</v>
+      </c>
+      <c r="C110">
+        <v>1.375356463958452</v>
+      </c>
+      <c r="D110">
+        <v>58.07805130084401</v>
+      </c>
+      <c r="E110">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111">
+        <v>0.9943502824858756</v>
+      </c>
+      <c r="B111">
+        <v>-0.0697892096216042</v>
+      </c>
+      <c r="C111">
+        <v>1.375744965507673</v>
+      </c>
+      <c r="D111">
+        <v>58.07885268549548</v>
+      </c>
+      <c r="E111">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112">
+        <v>0.992467043314501</v>
+      </c>
+      <c r="B112">
+        <v>-0.06992915032208936</v>
+      </c>
+      <c r="C112">
+        <v>1.375056170637188</v>
+      </c>
+      <c r="D112">
+        <v>58.97131477705888</v>
+      </c>
+      <c r="E112">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113">
+        <v>0.9548022598870056</v>
+      </c>
+      <c r="B113">
+        <v>-0.07332170548050224</v>
+      </c>
+      <c r="C113">
+        <v>1.358866720471741</v>
+      </c>
+      <c r="D113">
+        <v>58.74925108854583</v>
+      </c>
+      <c r="E113">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114">
+        <v>0.992467043314501</v>
+      </c>
+      <c r="B114">
+        <v>-0.06900023465031649</v>
+      </c>
+      <c r="C114">
+        <v>1.379660912139911</v>
+      </c>
+      <c r="D114">
+        <v>58.0787221279785</v>
+      </c>
+      <c r="E114">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115">
+        <v>0.992467043314501</v>
+      </c>
+      <c r="B115">
+        <v>-0.06923772254443879</v>
+      </c>
+      <c r="C115">
+        <v>1.37847631563083</v>
+      </c>
+      <c r="D115">
+        <v>58.07804742354426</v>
+      </c>
+      <c r="E115">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116">
+        <v>0.9755178907721281</v>
+      </c>
+      <c r="B116">
+        <v>-0.07024069939254922</v>
+      </c>
+      <c r="C116">
+        <v>1.373528879922882</v>
+      </c>
+      <c r="D116">
+        <v>59.19864973116007</v>
+      </c>
+      <c r="E116">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117">
+        <v>0.9830508474576272</v>
+      </c>
+      <c r="B117">
+        <v>-0.06874250416637524</v>
+      </c>
+      <c r="C117">
+        <v>1.380952259606328</v>
+      </c>
+      <c r="D117">
+        <v>58.30170611700786</v>
+      </c>
+      <c r="E117">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118">
+        <v>0.9943502824858756</v>
+      </c>
+      <c r="B118">
+        <v>-0.06752570681190993</v>
+      </c>
+      <c r="C118">
+        <v>1.387131766229586</v>
+      </c>
+      <c r="D118">
+        <v>58.07842555055552</v>
+      </c>
+      <c r="E118">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119">
+        <v>0.992467043314501</v>
+      </c>
+      <c r="B119">
+        <v>-0.06742150796427042</v>
+      </c>
+      <c r="C119">
+        <v>1.38766740331229</v>
+      </c>
+      <c r="D119">
+        <v>58.07948507027258</v>
+      </c>
+      <c r="E119">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120">
+        <v>1</v>
+      </c>
+      <c r="B120">
+        <v>-0.06702479875639517</v>
+      </c>
+      <c r="C120">
+        <v>1.389716207546737</v>
+      </c>
+      <c r="D120">
+        <v>58.07698171959957</v>
+      </c>
+      <c r="E120">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121">
+        <v>0.9905838041431262</v>
+      </c>
+      <c r="B121">
+        <v>-0.06817740082347011</v>
+      </c>
+      <c r="C121">
+        <v>1.38380498923805</v>
+      </c>
+      <c r="D121">
+        <v>58.07893175255107</v>
+      </c>
+      <c r="E121">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122">
+        <v>0.992467043314501</v>
+      </c>
+      <c r="B122">
+        <v>-0.06836395020892098</v>
+      </c>
+      <c r="C122">
+        <v>1.382860000868564</v>
+      </c>
+      <c r="D122">
+        <v>58.07929922893413</v>
+      </c>
+      <c r="E122">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123">
+        <v>0.9943502824858756</v>
+      </c>
+      <c r="B123">
+        <v>-0.06884767378879467</v>
+      </c>
+      <c r="C123">
+        <v>1.380424582018561</v>
+      </c>
+      <c r="D123">
+        <v>58.07836341122235</v>
+      </c>
+      <c r="E123">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124">
+        <v>0.9698681732580038</v>
+      </c>
+      <c r="B124">
+        <v>-0.06982821983104008</v>
+      </c>
+      <c r="C124">
+        <v>1.375552781937922</v>
+      </c>
+      <c r="D124">
+        <v>61.2086196430565</v>
+      </c>
+      <c r="E124">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125">
+        <v>0.992467043314501</v>
+      </c>
+      <c r="B125">
+        <v>-0.06742349274598065</v>
+      </c>
+      <c r="C125">
+        <v>1.387657190821159</v>
+      </c>
+      <c r="D125">
+        <v>58.07973569464849</v>
+      </c>
+      <c r="E125">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126">
+        <v>0.992467043314501</v>
+      </c>
+      <c r="B126">
+        <v>-0.06708166907549859</v>
+      </c>
+      <c r="C126">
+        <v>1.389421571382357</v>
+      </c>
+      <c r="D126">
+        <v>58.08093277865136</v>
+      </c>
+      <c r="E126">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127">
+        <v>0.992467043314501</v>
+      </c>
+      <c r="B127">
+        <v>-0.06686988583205596</v>
+      </c>
+      <c r="C127">
+        <v>1.390520374569458</v>
+      </c>
+      <c r="D127">
+        <v>58.08189674945975</v>
+      </c>
+      <c r="E127">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128">
+        <v>1</v>
+      </c>
+      <c r="B128">
+        <v>-0.0659789133836652</v>
+      </c>
+      <c r="C128">
+        <v>1.395191149012356</v>
+      </c>
+      <c r="D128">
+        <v>58.07859721664044</v>
+      </c>
+      <c r="E128">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129">
+        <v>0.992467043314501</v>
+      </c>
+      <c r="B129">
+        <v>-0.06720309761178454</v>
+      </c>
+      <c r="C129">
+        <v>1.388793513029736</v>
+      </c>
+      <c r="D129">
+        <v>58.08069632518878</v>
+      </c>
+      <c r="E129">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130">
+        <v>0.992467043314501</v>
+      </c>
+      <c r="B130">
+        <v>-0.06662308581394602</v>
+      </c>
+      <c r="C130">
+        <v>1.391806358042955</v>
+      </c>
+      <c r="D130">
+        <v>58.74887425493943</v>
+      </c>
+      <c r="E130">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131">
+        <v>1</v>
+      </c>
+      <c r="B131">
+        <v>-0.0669114805338267</v>
+      </c>
+      <c r="C131">
+        <v>1.390304224188246</v>
+      </c>
+      <c r="D131">
+        <v>58.07842696454814</v>
+      </c>
+      <c r="E131">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132">
+        <v>0.9830508474576272</v>
+      </c>
+      <c r="B132">
+        <v>-0.06859970570364661</v>
+      </c>
+      <c r="C132">
+        <v>1.381670353475452</v>
+      </c>
+      <c r="D132">
+        <v>58.08229658830802</v>
+      </c>
+      <c r="E132">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133">
+        <v>0.992467043314501</v>
+      </c>
+      <c r="B133">
+        <v>-0.06842998613275367</v>
+      </c>
+      <c r="C133">
+        <v>1.382526260107314</v>
+      </c>
+      <c r="D133">
+        <v>58.08069991835569</v>
+      </c>
+      <c r="E133">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134">
+        <v>0.992467043314501</v>
+      </c>
+      <c r="B134">
+        <v>-0.06835465217617051</v>
+      </c>
+      <c r="C134">
+        <v>1.382907024814051</v>
+      </c>
+      <c r="D134">
+        <v>58.07886336501954</v>
+      </c>
+      <c r="E134">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135">
+        <v>0.992467043314501</v>
+      </c>
+      <c r="B135">
+        <v>-0.06706857734401712</v>
+      </c>
+      <c r="C135">
+        <v>1.389489369908513</v>
+      </c>
+      <c r="D135">
+        <v>58.08001392647169</v>
+      </c>
+      <c r="E135">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136">
+        <v>0.992467043314501</v>
+      </c>
+      <c r="B136">
+        <v>-0.06676371359883741</v>
+      </c>
+      <c r="C136">
+        <v>1.391072870398049</v>
+      </c>
+      <c r="D136">
+        <v>58.07900536433085</v>
+      </c>
+      <c r="E136">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137">
+        <v>0.9905838041431262</v>
+      </c>
+      <c r="B137">
+        <v>-0.06708508514082746</v>
+      </c>
+      <c r="C137">
+        <v>1.389403883227516</v>
+      </c>
+      <c r="D137">
+        <v>58.08030025268516</v>
+      </c>
+      <c r="E137">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138">
+        <v>0.9566854990583804</v>
+      </c>
+      <c r="B138">
+        <v>-0.06939952900858049</v>
+      </c>
+      <c r="C138">
+        <v>1.377672125525439</v>
+      </c>
+      <c r="D138">
+        <v>59.42259408963275</v>
+      </c>
+      <c r="E138">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139">
+        <v>0.9755178907721281</v>
+      </c>
+      <c r="B139">
+        <v>-0.06853267394407019</v>
+      </c>
+      <c r="C139">
+        <v>1.382008082323233</v>
+      </c>
+      <c r="D139">
+        <v>59.19671950750745</v>
+      </c>
+      <c r="E139">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140">
+        <v>0.9943502824858756</v>
+      </c>
+      <c r="B140">
+        <v>-0.06705081408251753</v>
+      </c>
+      <c r="C140">
+        <v>1.38958138747647</v>
+      </c>
+      <c r="D140">
+        <v>58.07876511387312</v>
+      </c>
+      <c r="E140">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141">
+        <v>0.9887005649717513</v>
+      </c>
+      <c r="B141">
+        <v>-0.06795203500174604</v>
+      </c>
+      <c r="C141">
+        <v>1.384950927078178</v>
+      </c>
+      <c r="D141">
+        <v>58.08064376766896</v>
+      </c>
+      <c r="E141">
+        <v>389</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
